--- a/Frontend/edunect/src/assets/docs/Daily_Absent_Students_Template.xlsx
+++ b/Frontend/edunect/src/assets/docs/Daily_Absent_Students_Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <r>
       <rPr>
@@ -78,6 +78,54 @@
     </r>
   </si>
   <si>
+    <t>FSD-2</t>
+  </si>
+  <si>
+    <t>AKT</t>
+  </si>
+  <si>
+    <t>29,21</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Arial MT"/>
+      </rPr>
+      <t>MGV</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">7, 19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Arial MT"/>
+      </rPr>
+      <t>NIL</t>
+    </r>
+  </si>
+  <si>
+    <t>PYTHON-2</t>
+  </si>
+  <si>
+    <t>VHA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Arial MT"/>
+      </rPr>
+      <t xml:space="preserve">7, 19</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.5"/>
@@ -86,68 +134,21 @@
       <t>PS</t>
     </r>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <rFont val="Arial MT"/>
-      </rPr>
-      <t>SAS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <rFont val="Arial MT"/>
-      </rPr>
-      <t xml:space="preserve">7, 19</t>
-    </r>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <rFont val="Arial MT"/>
-      </rPr>
-      <t>MGV</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <rFont val="Arial MT"/>
-      </rPr>
-      <t>NIL</t>
-    </r>
-  </si>
-  <si>
-    <t>FSD</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
       <sz val="9.500000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.500000"/>
-      <color indexed="64"/>
-      <name val="Arial MT"/>
     </font>
     <font>
       <sz val="9.500000"/>
@@ -182,14 +183,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -197,60 +198,60 @@
       <left style="none"/>
       <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="none"/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="none"/>
@@ -258,14 +259,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -307,7 +308,7 @@
     <xf fontId="2" fillId="0" borderId="5" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="top"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -929,7 +930,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10">
@@ -942,7 +943,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
@@ -950,26 +951,26 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10">
         <v>3</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
@@ -977,26 +978,26 @@
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10">
         <v>4</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
